--- a/RunConfigs.xlsx
+++ b/RunConfigs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git\KlamathOpsModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33901E-E49A-478F-A13E-CC058A151158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE7ABB-2807-4CDC-B300-AB41E8B0F720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11256" xr2:uid="{99EBE3E7-09F8-48A4-9699-D711D98C517F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="108">
   <si>
     <t>Month</t>
   </si>
@@ -360,8 +360,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -439,14 +446,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -497,6 +498,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,638 +828,639 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="30.88671875" style="3" customWidth="1"/>
-    <col min="13" max="25" width="30.77734375" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="30.88671875" style="1" customWidth="1"/>
+    <col min="13" max="25" width="30.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="20" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="18" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>